--- a/pred_ohlcv/54_21/2020-01-20 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 REP ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-1046.300528793255</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1196.644328793255</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1149.841828793255</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1144.529328793255</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1136.687028793255</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-533.6887287932555</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-746.1208287932554</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-354.9935287932555</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-331.6865287932554</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-333.7131287932554</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-536.3883287932554</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-294.4683287932554</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-355.4401287932554</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-745.8670287932554</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-831.5332287932554</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-723.8816287932553</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-953.8246287932549</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-953.7433287932548</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-986.7337287932548</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1105.583728793255</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-688.4487287932548</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-690.0687287932548</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-800.0687287932548</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-800.1687287932548</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-816.8305287932548</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-936.8305287932548</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-976.8750287932547</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-959.4608287932547</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-959.4608287932547</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1159.460828793255</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1144.542228793255</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1144.542228793255</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1144.542228793255</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2241.132528793255</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1739.277128793255</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1664.631828793255</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1677.431828793255</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1689.565728793255</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1694.605728793255</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1540.785728793255</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1532.760128793255</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1525.591128793255</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1525.591128793255</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1525.591128793255</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1642.058428793255</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1638.616928793255</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1709.206928793255</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2123.629519099378</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2123.629519099378</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2361.422519099378</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2561.422519099378</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2423.171419099378</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2473.186419099378</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2282.986419099378</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2084.544619099378</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1813.453119099378</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-393.6223375201903</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-393.6533375201903</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-380.8129375201904</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-567.0355375201905</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-566.9715375201905</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-452.4274375201905</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-452.4594375201905</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-452.4914375201905</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-452.5234375201904</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-598.8489375201904</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-931.8672375201904</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-857.0235375201903</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-831.2317375201903</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-714.1923375201903</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-890.9023375201904</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-890.8703375201903</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-992.5157375201903</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-992.4837375201903</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1000.14033752019</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-999.2303375201902</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-918.4303375201903</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-100.7399618572556</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>5729.071599911497</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5615.872998762732</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>6108.133397613967</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>5759.617697613967</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>5524.075097613967</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>5228.272897613967</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3851.021197613967</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3322.045397613967</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3766.530597613967</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4087.716297613967</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3754.717197613967</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4117.796903374769</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3909.407103374769</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3771.186403374769</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3521.487203374769</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>977.0702561378671</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>977.0702561378671</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>910.2259561378671</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>916.8550561378671</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>917.1695561378671</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>917.1695561378671</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>895.1009561378671</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>953.6776561378671</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>953.6776561378671</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1003.677656137867</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1005.990156137867</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>950.3190561378671</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 REP ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-1046.300528793255</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1196.644328793255</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1149.841828793255</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1144.529328793255</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1136.687028793255</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-533.6887287932555</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-746.1208287932554</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-354.9935287932555</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-331.6865287932554</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-333.7131287932554</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-536.3883287932554</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-294.4683287932554</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-355.4401287932554</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-745.8670287932554</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-831.5332287932554</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-723.8816287932553</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1249.498928793255</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1191.954028793255</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1266.071728793255</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1376.071728793255</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1371.150628793255</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1216.258428793255</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-894.2467287932548</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-980.6954287932549</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-953.8246287932549</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-953.8246287932549</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-984.5771287932548</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-690.0687287932548</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-800.1687287932548</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-936.8305287932548</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-976.8750287932547</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1159.460828793255</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1739.277128793255</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1664.631828793255</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1677.431828793255</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1689.565728793255</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1612.365528793255</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1815.487919099378</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1735.487919099378</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1731.507119099378</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1626.090819099378</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1461.109719099378</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1668.999719099378</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1664.946019099378</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1666.946019099378</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1672.696019099378</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1671.703719099378</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1956.116619099378</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1952.288419099378</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1971.739119099378</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1967.739119099378</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2081.236219099378</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1976.253919099378</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1902.565919099378</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1593.978019099378</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1593.978019099378</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1398.819419099378</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1398.819419099378</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1398.819419099378</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1262.790119099378</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1262.790119099378</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-912.9373551639344</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-926.2379162611912</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-934.7266162611912</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-934.7266162611912</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-934.7266162611912</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-960.7266162611912</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-959.6895162611912</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-959.5761162611913</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-816.6693162611913</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-855.6693162611913</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-845.6801162611913</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-845.6121162611913</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-845.6121162611913</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-840.7661162611913</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-840.7992162611913</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-840.7992162611913</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-840.7992162611913</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-856.3981162611913</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-956.6337162611912</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-956.6337162611912</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-956.6337162611912</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-956.5587162611912</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-947.5937162611912</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-947.5937162611912</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-845.018003177079</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-848.050003177079</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-844.5190031770791</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-844.5190031770791</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-849.5190031770791</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-793.8971126298154</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-793.8971126298154</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-808.8971126298154</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-808.8604126298154</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-815.7112126298155</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-813.9112126298155</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-882.2531126298155</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-882.2531126298155</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-886.8771126298155</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-886.6271126298155</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1011.182812629816</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1011.182812629816</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1011.182812629816</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-958.1828126298155</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-986.1828126298155</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-985.1828126298155</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1005.182812629816</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1314.459912629816</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-393.6223375201903</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-393.6533375201903</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-380.8129375201904</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-567.0355375201905</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-566.9715375201905</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-452.4274375201905</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-452.4594375201905</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-452.4914375201905</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-452.5234375201904</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-598.8489375201904</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-931.8672375201904</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-857.0235375201903</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-831.2317375201903</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-714.1923375201903</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-890.9023375201904</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-890.8703375201903</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-992.5157375201903</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-992.4837375201903</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1000.14033752019</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-999.2303375201902</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-918.4303375201903</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-100.7399618572556</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>5729.071599911497</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5615.872998762732</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>6108.133397613967</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>5759.617697613967</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>5524.075097613967</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>5228.272897613967</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>5003.473597613967</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3442.234597613967</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3322.045397613967</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3766.530597613967</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4087.716297613967</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3754.717197613967</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4117.796903374769</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3909.407103374769</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3771.186403374769</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3521.487203374769</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
